--- a/LoadDispCurves/SY2frag.xlsx
+++ b/LoadDispCurves/SY2frag.xlsx
@@ -2021,6 +2021,624 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0303763440860215"/>
+          <c:y val="0.115192743764172"/>
+          <c:w val="0.939516129032258"/>
+          <c:h val="0.851549508692366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-0.009972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.008378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.007259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.0067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.006155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.005596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.005038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.004476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.003364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.002823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.002263</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.001704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.001144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.000587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.8e-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000508</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.001067</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.001625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.002187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.002743</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.003304</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.003847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.004406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.004966</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.005523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.006084</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.006638</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.007177</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.007738</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.008296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.008858</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.009413</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.009973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-43.389356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36.98078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.674328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-28.581105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.660605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.788219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17.091837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.585236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.012944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.599198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.178116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.100034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.95134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.857218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.772565</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.74182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.714469</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.591179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.079476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.795011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.365855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.768603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.905284</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.968491</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.729933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.514841</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.067794</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.562242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.003127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.350875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.618739</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47.207141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.781861</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.418278</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.232476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.611238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"slo"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$41:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.009972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.00894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.008378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.007259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.0067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.006155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.005596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.005038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.004476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$41:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-41.3161154555334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.7796445541187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-33.5838316202368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.3730336401625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.1922057524731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.9889002954951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.8005798847094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.7171547972708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.52883438648521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.34800649879579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.137208518721508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.02863432277548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131674407"/>
+        <c:axId val="772724808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131674407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772724808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="772724808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131674407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2141,6 +2759,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3174,6 +3832,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3776,6 +4950,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7394575" y="11601450"/>
+        <a:ext cx="7086600" cy="4200525"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4042,10 +5246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4056,7 +5260,8 @@
     <col min="5" max="5" width="13.75"/>
     <col min="7" max="7" width="12.625"/>
     <col min="8" max="8" width="13.75"/>
-    <col min="10" max="11" width="12.625"/>
+    <col min="10" max="10" width="12.625"/>
+    <col min="11" max="11" width="13.75"/>
     <col min="13" max="14" width="12.625"/>
     <col min="16" max="17" width="12.625"/>
     <col min="19" max="19" width="12.625"/>
@@ -6065,7 +7270,14 @@
         <v>46.655745</v>
       </c>
     </row>
-    <row r="41" spans="13:29">
+    <row r="41" spans="10:29">
+      <c r="J41" s="1">
+        <v>-0.009972</v>
+      </c>
+      <c r="K41">
+        <f>$J$39*J41+$K$39</f>
+        <v>-41.3161154555334</v>
+      </c>
       <c r="M41" s="1">
         <v>0.014142</v>
       </c>
@@ -6079,7 +7291,14 @@
         <v>47.446943</v>
       </c>
     </row>
-    <row r="42" spans="13:29">
+    <row r="42" spans="10:29">
+      <c r="J42" s="1">
+        <v>-0.0095</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K52" si="1">$J$39*J42+$K$39</f>
+        <v>-37.7796445541187</v>
+      </c>
       <c r="M42" s="1">
         <v>0.014559</v>
       </c>
@@ -6093,7 +7312,14 @@
         <v>48.315537</v>
       </c>
     </row>
-    <row r="43" spans="13:29">
+    <row r="43" spans="10:29">
+      <c r="J43" s="1">
+        <v>-0.00894</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>-33.5838316202368</v>
+      </c>
       <c r="M43" s="1">
         <v>0.014977</v>
       </c>
@@ -6107,7 +7333,14 @@
         <v>48.831351</v>
       </c>
     </row>
-    <row r="44" spans="28:29">
+    <row r="44" spans="10:29">
+      <c r="J44" s="1">
+        <v>-0.008378</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>-29.3730336401625</v>
+      </c>
       <c r="AB44" s="1">
         <v>0.012751</v>
       </c>
@@ -6115,7 +7348,14 @@
         <v>49.406471</v>
       </c>
     </row>
-    <row r="45" spans="13:29">
+    <row r="45" spans="10:29">
+      <c r="J45" s="1">
+        <v>-0.00782</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>-25.1922057524731</v>
+      </c>
       <c r="M45">
         <f>SLOPE(N1:N8,M1:M8)</f>
         <v>7087.20540890144</v>
@@ -6131,7 +7371,14 @@
         <v>49.960454</v>
       </c>
     </row>
-    <row r="46" spans="28:29">
+    <row r="46" spans="10:29">
+      <c r="J46" s="1">
+        <v>-0.007259</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>-20.9889002954951</v>
+      </c>
       <c r="AB46" s="1">
         <v>0.013849</v>
       </c>
@@ -6139,7 +7386,23 @@
         <v>50.334898</v>
       </c>
     </row>
-    <row r="48" spans="28:29">
+    <row r="47" spans="10:11">
+      <c r="J47" s="1">
+        <v>-0.0067</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>-16.8005798847094</v>
+      </c>
+    </row>
+    <row r="48" spans="10:29">
+      <c r="J48" s="1">
+        <v>-0.006155</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>-12.7171547972708</v>
+      </c>
       <c r="AB48">
         <f>SLOPE(AC1:AC5,AB1:AB5)</f>
         <v>6002.24533195297</v>
@@ -6147,6 +7410,42 @@
       <c r="AC48">
         <f>INTERCEPT(AC1:AC5,AB1:AB5)</f>
         <v>250.290656216114</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="1">
+        <v>-0.005596</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>-8.52883438648521</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="1">
+        <v>-0.005038</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>-4.34800649879579</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="1">
+        <v>-0.004476</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>-0.137208518721508</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="1">
+        <v>-0.00392</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>4.02863432277548</v>
       </c>
     </row>
   </sheetData>
